--- a/output.xlsx
+++ b/output.xlsx
@@ -14,57 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
-    <t>おふくろ</t>
+    <t>郷</t>
   </si>
   <si>
-    <t>Không có nghĩa</t>
+    <t>Không có comment</t>
   </si>
   <si>
-    <t>郷愁</t>
-  </si>
-  <si>
-    <t>世</t>
+    <t>愁</t>
   </si>
   <si>
     <t>幾</t>
   </si>
   <si>
-    <t>油揚げ</t>
-  </si>
-  <si>
-    <t>要する</t>
-  </si>
-  <si>
-    <t>注ぐ</t>
-  </si>
-  <si>
-    <t>言</t>
-  </si>
-  <si>
-    <t>作り</t>
-  </si>
-  <si>
-    <t>中略</t>
-  </si>
-  <si>
-    <t>甚だ</t>
-  </si>
-  <si>
-    <t>流動</t>
-  </si>
-  <si>
-    <t>密着</t>
-  </si>
-  <si>
-    <t>漂白</t>
-  </si>
-  <si>
-    <t>だし</t>
-  </si>
-  <si>
-    <t>味気ない</t>
+    <t>要</t>
   </si>
 </sst>
 </file>
@@ -443,7 +407,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B528"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
   <sheetData>
@@ -479,102 +445,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="14.4" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="14.4" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="14.4" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="14.4" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="14.4" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" ht="14.4" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" ht="14.4" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="14.4" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" ht="14.4" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" ht="14.4" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" ht="14.4" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" ht="14.4" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" ht="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" ht="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" ht="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" ht="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" ht="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" ht="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
